--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cfh-Itgam.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cfh-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.35806007669251</v>
+        <v>1.362097333333333</v>
       </c>
       <c r="H2">
-        <v>1.35806007669251</v>
+        <v>4.086292</v>
       </c>
       <c r="I2">
-        <v>0.02121285789413885</v>
+        <v>0.0196292037450248</v>
       </c>
       <c r="J2">
-        <v>0.02121285789413885</v>
+        <v>0.0196292037450248</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>146.433606223121</v>
+        <v>0.142723</v>
       </c>
       <c r="N2">
-        <v>146.433606223121</v>
+        <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.5086671177303524</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P2">
-        <v>0.5086671177303524</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q2">
-        <v>198.8656344977325</v>
+        <v>0.1944026177053334</v>
       </c>
       <c r="R2">
-        <v>198.8656344977325</v>
+        <v>1.749623559348</v>
       </c>
       <c r="S2">
-        <v>0.01079028328383516</v>
+        <v>9.241238237704643E-06</v>
       </c>
       <c r="T2">
-        <v>0.01079028328383516</v>
+        <v>9.241238237704638E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.35806007669251</v>
+        <v>1.362097333333333</v>
       </c>
       <c r="H3">
-        <v>1.35806007669251</v>
+        <v>4.086292</v>
       </c>
       <c r="I3">
-        <v>0.02121285789413885</v>
+        <v>0.0196292037450248</v>
       </c>
       <c r="J3">
-        <v>0.02121285789413885</v>
+        <v>0.0196292037450248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>141.443477077448</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N3">
-        <v>141.443477077448</v>
+        <v>444.264488</v>
       </c>
       <c r="O3">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P3">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q3">
-        <v>192.0887393274543</v>
+        <v>201.7104914664996</v>
       </c>
       <c r="R3">
-        <v>192.0887393274543</v>
+        <v>1815.394423198496</v>
       </c>
       <c r="S3">
-        <v>0.01042257461030369</v>
+        <v>0.009588629662959895</v>
       </c>
       <c r="T3">
-        <v>0.01042257461030369</v>
+        <v>0.009588629662959891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.3573951157947</v>
+        <v>1.362097333333333</v>
       </c>
       <c r="H4">
-        <v>23.3573951157947</v>
+        <v>4.086292</v>
       </c>
       <c r="I4">
-        <v>0.3648418150803141</v>
+        <v>0.0196292037450248</v>
       </c>
       <c r="J4">
-        <v>0.3648418150803141</v>
+        <v>0.0196292037450248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>146.433606223121</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N4">
-        <v>146.433606223121</v>
+        <v>464.776001</v>
       </c>
       <c r="O4">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P4">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q4">
-        <v>3420.30759878413</v>
+        <v>211.0233838531436</v>
       </c>
       <c r="R4">
-        <v>3420.30759878413</v>
+        <v>1899.210454678292</v>
       </c>
       <c r="S4">
-        <v>0.1855830345044136</v>
+        <v>0.0100313328438272</v>
       </c>
       <c r="T4">
-        <v>0.1855830345044136</v>
+        <v>0.0100313328438272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.3573951157947</v>
+        <v>24.05951033333333</v>
       </c>
       <c r="H5">
-        <v>23.3573951157947</v>
+        <v>72.17853099999999</v>
       </c>
       <c r="I5">
-        <v>0.3648418150803141</v>
+        <v>0.3467219403350491</v>
       </c>
       <c r="J5">
-        <v>0.3648418150803141</v>
+        <v>0.346721940335049</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>141.443477077448</v>
+        <v>0.142723</v>
       </c>
       <c r="N5">
-        <v>141.443477077448</v>
+        <v>0.428169</v>
       </c>
       <c r="O5">
-        <v>0.4913328822696476</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P5">
-        <v>0.4913328822696476</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q5">
-        <v>3303.751180649803</v>
+        <v>3.433845493304334</v>
       </c>
       <c r="R5">
-        <v>3303.751180649803</v>
+        <v>30.904609439739</v>
       </c>
       <c r="S5">
-        <v>0.1792587805759005</v>
+        <v>0.0001632333177899547</v>
       </c>
       <c r="T5">
-        <v>0.1792587805759005</v>
+        <v>0.0001632333177899547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.7648155792066</v>
+        <v>24.05951033333333</v>
       </c>
       <c r="H6">
-        <v>13.7648155792066</v>
+        <v>72.17853099999999</v>
       </c>
       <c r="I6">
-        <v>0.2150060088150654</v>
+        <v>0.3467219403350491</v>
       </c>
       <c r="J6">
-        <v>0.2150060088150654</v>
+        <v>0.346721940335049</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>146.433606223121</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N6">
-        <v>146.433606223121</v>
+        <v>444.264488</v>
       </c>
       <c r="O6">
-        <v>0.5086671177303524</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P6">
-        <v>0.5086671177303524</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q6">
-        <v>2015.63158425942</v>
+        <v>3562.928679923014</v>
       </c>
       <c r="R6">
-        <v>2015.63158425942</v>
+        <v>32066.35811930713</v>
       </c>
       <c r="S6">
-        <v>0.1093664867986661</v>
+        <v>0.1693694927762064</v>
       </c>
       <c r="T6">
-        <v>0.1093664867986661</v>
+        <v>0.1693694927762064</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.7648155792066</v>
+        <v>24.05951033333333</v>
       </c>
       <c r="H7">
-        <v>13.7648155792066</v>
+        <v>72.17853099999999</v>
       </c>
       <c r="I7">
-        <v>0.2150060088150654</v>
+        <v>0.3467219403350491</v>
       </c>
       <c r="J7">
-        <v>0.2150060088150654</v>
+        <v>0.346721940335049</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>141.443477077448</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N7">
-        <v>141.443477077448</v>
+        <v>464.776001</v>
       </c>
       <c r="O7">
-        <v>0.4913328822696476</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P7">
-        <v>0.4913328822696476</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q7">
-        <v>1946.943376852808</v>
+        <v>3727.427666248281</v>
       </c>
       <c r="R7">
-        <v>1946.943376852808</v>
+        <v>33546.84899623453</v>
       </c>
       <c r="S7">
-        <v>0.1056395220163994</v>
+        <v>0.1771892142410527</v>
       </c>
       <c r="T7">
-        <v>0.1056395220163994</v>
+        <v>0.1771892142410527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.9976531547781</v>
+        <v>14.711625</v>
       </c>
       <c r="H8">
-        <v>23.9976531547781</v>
+        <v>44.13487499999999</v>
       </c>
       <c r="I8">
-        <v>0.3748426265537008</v>
+        <v>0.2120094338917045</v>
       </c>
       <c r="J8">
-        <v>0.3748426265537008</v>
+        <v>0.2120094338917045</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>146.433606223121</v>
+        <v>0.142723</v>
       </c>
       <c r="N8">
-        <v>146.433606223121</v>
+        <v>0.428169</v>
       </c>
       <c r="O8">
-        <v>0.5086671177303524</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P8">
-        <v>0.5086671177303524</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q8">
-        <v>3514.062892345813</v>
+        <v>2.099687254875</v>
       </c>
       <c r="R8">
-        <v>3514.062892345813</v>
+        <v>18.897185293875</v>
       </c>
       <c r="S8">
-        <v>0.1906701184515459</v>
+        <v>9.981197977685258E-05</v>
       </c>
       <c r="T8">
-        <v>0.1906701184515459</v>
+        <v>9.981197977685256E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.9976531547781</v>
+        <v>14.711625</v>
       </c>
       <c r="H9">
-        <v>23.9976531547781</v>
+        <v>44.13487499999999</v>
       </c>
       <c r="I9">
-        <v>0.3748426265537008</v>
+        <v>0.2120094338917045</v>
       </c>
       <c r="J9">
-        <v>0.3748426265537008</v>
+        <v>0.2120094338917045</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>141.443477077448</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N9">
-        <v>141.443477077448</v>
+        <v>444.264488</v>
       </c>
       <c r="O9">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P9">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q9">
-        <v>3394.311503910404</v>
+        <v>2178.617516091</v>
       </c>
       <c r="R9">
-        <v>3394.311503910404</v>
+        <v>19607.557644819</v>
       </c>
       <c r="S9">
-        <v>0.184172508102155</v>
+        <v>0.1035640555290779</v>
       </c>
       <c r="T9">
-        <v>0.184172508102155</v>
+        <v>0.1035640555290779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.54268486984421</v>
+        <v>14.711625</v>
       </c>
       <c r="H10">
-        <v>1.54268486984421</v>
+        <v>44.13487499999999</v>
       </c>
       <c r="I10">
-        <v>0.02409669165678067</v>
+        <v>0.2120094338917045</v>
       </c>
       <c r="J10">
-        <v>0.02409669165678067</v>
+        <v>0.2120094338917045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>146.433606223121</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N10">
-        <v>146.433606223121</v>
+        <v>464.776001</v>
       </c>
       <c r="O10">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P10">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q10">
-        <v>225.9009087571337</v>
+        <v>2279.203411903874</v>
       </c>
       <c r="R10">
-        <v>225.9009087571337</v>
+        <v>20512.83070713487</v>
       </c>
       <c r="S10">
-        <v>0.01225719469189166</v>
+        <v>0.1083455663828498</v>
       </c>
       <c r="T10">
-        <v>0.01225719469189166</v>
+        <v>0.1083455663828498</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>27.616616</v>
+      </c>
+      <c r="H11">
+        <v>82.84984800000001</v>
+      </c>
+      <c r="I11">
+        <v>0.3979834399099074</v>
+      </c>
+      <c r="J11">
+        <v>0.3979834399099074</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.142723</v>
+      </c>
+      <c r="N11">
+        <v>0.428169</v>
+      </c>
+      <c r="O11">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P11">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q11">
+        <v>3.941526285368001</v>
+      </c>
+      <c r="R11">
+        <v>35.47373656831201</v>
+      </c>
+      <c r="S11">
+        <v>0.0001873667332940518</v>
+      </c>
+      <c r="T11">
+        <v>0.0001873667332940517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.54268486984421</v>
-      </c>
-      <c r="H11">
-        <v>1.54268486984421</v>
-      </c>
-      <c r="I11">
-        <v>0.02409669165678067</v>
-      </c>
-      <c r="J11">
-        <v>0.02409669165678067</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>141.443477077448</v>
-      </c>
-      <c r="N11">
-        <v>141.443477077448</v>
-      </c>
-      <c r="O11">
-        <v>0.4913328822696476</v>
-      </c>
-      <c r="P11">
-        <v>0.4913328822696476</v>
-      </c>
-      <c r="Q11">
-        <v>218.2027120255354</v>
-      </c>
-      <c r="R11">
-        <v>218.2027120255354</v>
-      </c>
-      <c r="S11">
-        <v>0.01183949696488902</v>
-      </c>
-      <c r="T11">
-        <v>0.01183949696488902</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>27.616616</v>
+      </c>
+      <c r="H12">
+        <v>82.84984800000001</v>
+      </c>
+      <c r="I12">
+        <v>0.3979834399099074</v>
+      </c>
+      <c r="J12">
+        <v>0.3979834399099074</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N12">
+        <v>444.264488</v>
+      </c>
+      <c r="O12">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P12">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q12">
+        <v>4089.69392251087</v>
+      </c>
+      <c r="R12">
+        <v>36807.24530259783</v>
+      </c>
+      <c r="S12">
+        <v>0.1944101180494489</v>
+      </c>
+      <c r="T12">
+        <v>0.1944101180494488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>27.616616</v>
+      </c>
+      <c r="H13">
+        <v>82.84984800000001</v>
+      </c>
+      <c r="I13">
+        <v>0.3979834399099074</v>
+      </c>
+      <c r="J13">
+        <v>0.3979834399099074</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N13">
+        <v>464.776001</v>
+      </c>
+      <c r="O13">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P13">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q13">
+        <v>4278.513448544206</v>
+      </c>
+      <c r="R13">
+        <v>38506.62103689785</v>
+      </c>
+      <c r="S13">
+        <v>0.2033859551271646</v>
+      </c>
+      <c r="T13">
+        <v>0.2033859551271645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.641521</v>
+      </c>
+      <c r="H14">
+        <v>4.924563000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.02365598211831425</v>
+      </c>
+      <c r="J14">
+        <v>0.02365598211831425</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.142723</v>
+      </c>
+      <c r="N14">
+        <v>0.428169</v>
+      </c>
+      <c r="O14">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P14">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q14">
+        <v>0.2342828016830001</v>
+      </c>
+      <c r="R14">
+        <v>2.108545215147001</v>
+      </c>
+      <c r="S14">
+        <v>1.113700633718429E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.113700633718429E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.641521</v>
+      </c>
+      <c r="H15">
+        <v>4.924563000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.02365598211831425</v>
+      </c>
+      <c r="J15">
+        <v>0.02365598211831425</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N15">
+        <v>444.264488</v>
+      </c>
+      <c r="O15">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P15">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q15">
+        <v>243.0898288687494</v>
+      </c>
+      <c r="R15">
+        <v>2187.808459818745</v>
+      </c>
+      <c r="S15">
+        <v>0.0115556624095671</v>
+      </c>
+      <c r="T15">
+        <v>0.0115556624095671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.641521</v>
+      </c>
+      <c r="H16">
+        <v>4.924563000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.02365598211831425</v>
+      </c>
+      <c r="J16">
+        <v>0.02365598211831425</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N16">
+        <v>464.776001</v>
+      </c>
+      <c r="O16">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P16">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q16">
+        <v>254.3131886458404</v>
+      </c>
+      <c r="R16">
+        <v>2288.818697812563</v>
+      </c>
+      <c r="S16">
+        <v>0.01208918270240997</v>
+      </c>
+      <c r="T16">
+        <v>0.01208918270240996</v>
       </c>
     </row>
   </sheetData>
